--- a/dokumentácia/assets/data.xlsx
+++ b/dokumentácia/assets/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\STUFIIT\3. semester\UI\3. zadanie\dokumentácia\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC5675E-2DFB-414C-B0AE-996E5A31B042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EFD6B-6BE7-4767-ADA7-D294A72040EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{065B6F7D-CFB5-4F11-A3D6-C4BB6CDB67F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{065B6F7D-CFB5-4F11-A3D6-C4BB6CDB67F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>CONFIG</t>
   </si>
@@ -58,35 +58,69 @@
     <t>Vyriešených</t>
   </si>
   <si>
-    <t>Priemerný čas vyriešených</t>
-  </si>
-  <si>
     <t>Dáta</t>
   </si>
   <si>
-    <t>68.86</t>
-  </si>
-  <si>
     <t>Priemerná konečná generácia</t>
   </si>
   <si>
-    <t>4100.</t>
-  </si>
-  <si>
     <t>ČAS</t>
   </si>
   <si>
     <t>GENERÁCIA RIEŠENIA</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>NEDOKONČIL</t>
+  </si>
+  <si>
+    <t>Priemerný čas vyriešených (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -113,8 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -429,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5D6F1-2909-479D-94F6-686CCBB48BF7}">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,77 +493,192 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>100000</v>
-      </c>
+      <c r="B5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>60</v>
       </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <f>AVERAGE(B14:B20)</f>
+        <v>23.252857142857142</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <f>AVERAGE(C14:C20)</f>
+        <v>2622.4285714285716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>8.83</v>
+      </c>
+      <c r="C14" s="2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="C15" s="2">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11.49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>65.34</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.94</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>49.17</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dokumentácia/assets/data.xlsx
+++ b/dokumentácia/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\STUFIIT\3. semester\UI\3. zadanie\dokumentácia\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01EFD6B-6BE7-4767-ADA7-D294A72040EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9566F5-8741-4086-A471-F817169A74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{065B6F7D-CFB5-4F11-A3D6-C4BB6CDB67F9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>CONFIG</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Vyriešených</t>
   </si>
   <si>
-    <t>Dáta</t>
-  </si>
-  <si>
     <t>Priemerná konečná generácia</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>GENERÁCIA RIEŠENIA</t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -104,13 +98,31 @@
   </si>
   <si>
     <t>Priemerný čas vyriešených (s)</t>
+  </si>
+  <si>
+    <t>Generovanie náhodných detí</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>Turnajový systém</t>
+  </si>
+  <si>
+    <t>ÁNO</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>14.57</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +136,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,11 +167,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -466,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5D6F1-2909-479D-94F6-686CCBB48BF7}">
-  <dimension ref="A2:C23"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,208 +515,1194 @@
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2">
+        <v>100</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>10000</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>60</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2">
+        <v>60</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2">
+        <v>10</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8.83</v>
+      </c>
+      <c r="C13" s="2">
+        <v>978</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>537</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="K13" s="2">
+        <v>454</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>83.18</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1287</v>
+      </c>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="C14" s="2">
+        <v>773</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2.96</v>
+      </c>
+      <c r="G14" s="2">
+        <v>260</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="3">
+        <v>10.88</v>
+      </c>
+      <c r="K14" s="2">
+        <v>853</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="O14" s="2">
+        <v>338</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>11.02</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1162</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3">
+        <v>21.38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1981</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="3">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2579</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3">
+        <v>31.37</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1311</v>
+      </c>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>11.49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1221</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2810</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3">
+        <v>51.91</v>
+      </c>
+      <c r="K16" s="2">
+        <v>4060</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="3">
+        <v>147.46</v>
+      </c>
+      <c r="O16" s="2">
+        <v>4978</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>65.34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7589</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>27.1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2421</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1156</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="3">
+        <v>11.57</v>
+      </c>
+      <c r="O17" s="2">
+        <v>842</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9.94</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>25.31</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2339</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="K18" s="2">
+        <v>563</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="3">
+        <v>9.64</v>
+      </c>
+      <c r="O18" s="2">
+        <v>599</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>49.17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5543</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="G19" s="2">
+        <v>309</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>448</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B24" s="5">
         <v>0.7</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <f>AVERAGE(B14:B20)</f>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <f>AVERAGE(B13:B19)</f>
         <v>23.252857142857142</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <f>AVERAGE(C14:C20)</f>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6">
+        <f>AVERAGE(F13:F19)</f>
+        <v>16.779999999999998</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="6">
+        <f>AVERAGE(J13:J19)</f>
+        <v>21.972000000000001</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="6">
+        <f>AVERAGE(N13:N19)</f>
+        <v>42.027142857142856</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="7">
+        <f>AVERAGE(C13:C19)</f>
         <v>2622.4285714285716</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>8.83</v>
-      </c>
-      <c r="C14" s="2">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>6.98</v>
-      </c>
-      <c r="C15" s="2">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>11.02</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>11.49</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>65.34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9.94</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>49.17</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7">
+        <f>AVERAGE(G13:G19)</f>
+        <v>1522.4285714285713</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7">
+        <f>AVERAGE(K13:K19)</f>
+        <v>1610.8333333333333</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="7">
+        <f>AVERAGE(O13:O19)</f>
+        <v>1400.4285714285713</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dokumentácia/assets/data.xlsx
+++ b/dokumentácia/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\STUFIIT\3. semester\UI\3. zadanie\dokumentácia\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9566F5-8741-4086-A471-F817169A74E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394F181E-59DB-4BCC-9320-91A8FF1018A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{065B6F7D-CFB5-4F11-A3D6-C4BB6CDB67F9}"/>
   </bookViews>
@@ -32,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
-  <si>
-    <t>CONFIG</t>
-  </si>
-  <si>
-    <t>Vzorové zadania</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="27">
   <si>
     <t>Počet jedincov v generácii</t>
   </si>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>14.57</t>
+  </si>
+  <si>
+    <t>Vzorové zadanie</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -163,31 +160,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,17 +612,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF5D6F1-2909-479D-94F6-686CCBB48BF7}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="B1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -525,7 +634,7 @@
     <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -548,10 +657,8 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -573,29 +680,14 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -604,32 +696,16 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>100</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>100</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="D4" s="8"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -638,32 +714,16 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>10000</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="8"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -672,32 +732,16 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="8"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -706,32 +750,16 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="8"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="2">
-        <v>5</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -740,32 +768,16 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
         <v>60</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="D8" s="8"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="2">
-        <v>60</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -774,32 +786,16 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="D9" s="8"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="2">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -808,32 +804,16 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -842,21 +822,12 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -865,46 +836,18 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -913,46 +856,18 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="11">
         <v>8.83</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="12">
         <v>978</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.16</v>
-      </c>
-      <c r="G13" s="2">
-        <v>537</v>
-      </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
-        <v>6.01</v>
-      </c>
-      <c r="K13" s="2">
-        <v>454</v>
-      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="3">
-        <v>83.18</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1287</v>
-      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -961,46 +876,18 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
         <v>6.98</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="12">
         <v>773</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.96</v>
-      </c>
-      <c r="G14" s="2">
-        <v>260</v>
-      </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="3">
-        <v>10.88</v>
-      </c>
-      <c r="K14" s="2">
-        <v>853</v>
-      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="O14" s="2">
-        <v>338</v>
-      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1009,46 +896,18 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
         <v>11.02</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="12">
         <v>1162</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3">
-        <v>21.38</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1981</v>
-      </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="3">
-        <v>33.840000000000003</v>
-      </c>
-      <c r="K15" s="2">
-        <v>2579</v>
-      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="3">
-        <v>31.37</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1311</v>
-      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1057,46 +916,18 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11">
         <v>11.49</v>
       </c>
-      <c r="C16" s="2">
+      <c r="D16" s="12">
         <v>1221</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="3">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2">
-        <v>2810</v>
-      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="3">
-        <v>51.91</v>
-      </c>
-      <c r="K16" s="2">
-        <v>4060</v>
-      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="3">
-        <v>147.46</v>
-      </c>
-      <c r="O16" s="2">
-        <v>4978</v>
-      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1105,46 +936,18 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
         <v>65.34</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="12">
         <v>7589</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3">
-        <v>27.1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2421</v>
-      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1156</v>
-      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="3">
-        <v>11.57</v>
-      </c>
-      <c r="O17" s="2">
-        <v>842</v>
-      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1153,46 +956,18 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="11">
         <v>9.94</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="12">
         <v>1091</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3">
-        <v>25.31</v>
-      </c>
-      <c r="G18" s="2">
-        <v>2339</v>
-      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="3">
-        <v>7.22</v>
-      </c>
-      <c r="K18" s="2">
-        <v>563</v>
-      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="3">
-        <v>9.64</v>
-      </c>
-      <c r="O18" s="2">
-        <v>599</v>
-      </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1201,44 +976,18 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="11">
         <v>49.17</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="12">
         <v>5543</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3">
-        <v>3.55</v>
-      </c>
-      <c r="G19" s="2">
-        <v>309</v>
-      </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="O19" s="2">
-        <v>448</v>
-      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1247,38 +996,16 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2"/>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1287,38 +1014,16 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2"/>
+      <c r="D21" s="8"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1327,38 +1032,16 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="1"/>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1367,21 +1050,12 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="8"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1390,32 +1064,16 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14">
         <v>0.7</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="D24" s="8"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1424,36 +1082,17 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6">
-        <f>AVERAGE(B13:B19)</f>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="15">
+        <f>AVERAGE(C13:C19)</f>
         <v>23.252857142857142</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="6">
-        <f>AVERAGE(F13:F19)</f>
-        <v>16.779999999999998</v>
-      </c>
-      <c r="G25" s="1"/>
+      <c r="D25" s="8"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="6">
-        <f>AVERAGE(J13:J19)</f>
-        <v>21.972000000000001</v>
-      </c>
-      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="6">
-        <f>AVERAGE(N13:N19)</f>
-        <v>42.027142857142856</v>
-      </c>
-      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1462,36 +1101,17 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7">
-        <f>AVERAGE(C13:C19)</f>
+    <row r="26" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="17">
+        <f>AVERAGE(D13:D19)</f>
         <v>2622.4285714285716</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="7">
-        <f>AVERAGE(G13:G19)</f>
-        <v>1522.4285714285713</v>
-      </c>
-      <c r="G26" s="1"/>
+      <c r="D26" s="18"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="7">
-        <f>AVERAGE(K13:K19)</f>
-        <v>1610.8333333333333</v>
-      </c>
-      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="7">
-        <f>AVERAGE(O13:O19)</f>
-        <v>1400.4285714285713</v>
-      </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1500,7 +1120,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1517,7 +1137,12 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1534,7 +1159,14 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>100</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1551,7 +1183,14 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1568,7 +1207,14 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1585,10 +1231,14 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6">
+        <v>20</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1609,9 +1259,13 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>60</v>
+      </c>
+      <c r="D33" s="8"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1632,9 +1286,13 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="6">
+        <v>10</v>
+      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1655,9 +1313,13 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="8"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1678,9 +1340,9 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1700,6 +1362,603 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11">
+        <v>6.16</v>
+      </c>
+      <c r="D38" s="12">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2.96</v>
+      </c>
+      <c r="D39" s="12">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="11">
+        <v>21.38</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="11">
+        <v>31</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="11">
+        <v>27.1</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="11">
+        <v>25.31</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3.55</v>
+      </c>
+      <c r="D44" s="12">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48" s="20"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="15">
+        <f>AVERAGE(C38:C44)</f>
+        <v>16.779999999999998</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="17">
+        <f>AVERAGE(D38:D44)</f>
+        <v>1522.4285714285713</v>
+      </c>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6">
+        <v>100</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6">
+        <v>10</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6">
+        <v>60</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="6">
+        <v>10</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="20">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
+        <v>6.01</v>
+      </c>
+      <c r="D63" s="12">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="11">
+        <v>10.88</v>
+      </c>
+      <c r="D64" s="12">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="11">
+        <v>33.840000000000003</v>
+      </c>
+      <c r="D65" s="12">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="11">
+        <v>51.91</v>
+      </c>
+      <c r="D66" s="12">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="11">
+        <v>7.22</v>
+      </c>
+      <c r="D68" s="12">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="20"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="15">
+        <f>AVERAGE(C63:C69)</f>
+        <v>21.972000000000001</v>
+      </c>
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="17">
+        <f>AVERAGE(D63:D69)</f>
+        <v>1610.8333333333333</v>
+      </c>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="6">
+        <v>100</v>
+      </c>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="6">
+        <v>5</v>
+      </c>
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="6">
+        <v>60</v>
+      </c>
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="6">
+        <v>10</v>
+      </c>
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="20">
+        <v>1</v>
+      </c>
+      <c r="C88" s="11">
+        <v>83.18</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="11">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D89" s="12">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="11">
+        <v>31.37</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="11">
+        <v>147.46</v>
+      </c>
+      <c r="D91" s="12">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="11">
+        <v>11.57</v>
+      </c>
+      <c r="D92" s="12">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="11">
+        <v>9.64</v>
+      </c>
+      <c r="D93" s="12">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="D94" s="12">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="20"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="15">
+        <f>AVERAGE(C88:C94)</f>
+        <v>42.027142857142856</v>
+      </c>
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="17">
+        <f>AVERAGE(D88:D94)</f>
+        <v>1400.4285714285713</v>
+      </c>
+      <c r="D101" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
